--- a/code/RaBIDS templates/conditions_TaskName.xlsx
+++ b/code/RaBIDS templates/conditions_TaskName.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\AG-Austausch\RaBIDS\v0.1\dataset\code\RaBIDS templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\zisvfs12\Home\Christian.Paret\Documents\_RaBIDS\clone github repository\RaBIDS\code\RaBIDS templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -30,12 +30,6 @@
     <t>Log ID</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>Contrast type is not yet implemented, t-contrasts are estimated by default</t>
-  </si>
-  <si>
     <t>ContrastType</t>
   </si>
   <si>
@@ -76,6 +70,18 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Contrast2</t>
+  </si>
+  <si>
+    <t>tcon</t>
+  </si>
+  <si>
+    <t>eoi</t>
+  </si>
+  <si>
+    <t>ContrastType: use either tcon or eoi (if eoi: values entered to ContrastPlus1 and ContrastMinus1 are ignored)</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -448,51 +454,51 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -500,21 +506,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/code/RaBIDS templates/conditions_TaskName.xlsx
+++ b/code/RaBIDS templates/conditions_TaskName.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -69,19 +69,28 @@
     <t>BIDS</t>
   </si>
   <si>
+    <t>Condition2</t>
+  </si>
+  <si>
+    <t>eoi</t>
+  </si>
+  <si>
+    <t>tcon</t>
+  </si>
+  <si>
+    <t>SplitCondition</t>
+  </si>
+  <si>
+    <t>Contrast2</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
-    <t>Contrast2</t>
-  </si>
-  <si>
-    <t>tcon</t>
-  </si>
-  <si>
-    <t>eoi</t>
-  </si>
-  <si>
-    <t>ContrastType: use either tcon or eoi (if eoi: values entered to ContrastPlus1 and ContrastMinus1 are ignored)</t>
+    <t xml:space="preserve">ContrastType: use either tcon or eoi. Separate multiple conditions with semicolon. If eoi: enter conditions for eoi contrast to field ContrastPlus1. Values entered to ContrastMinus1 are ignored. </t>
+  </si>
+  <si>
+    <t>ContrastType: use either tcon or eoi. Separate multiple conditions with semicolon.</t>
   </si>
 </sst>
 </file>
@@ -434,22 +443,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="15" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" style="3" customWidth="1"/>
+    <col min="2" max="9" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -463,72 +469,83 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="B6" s="2"/>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G7" t="s">
         <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
